--- a/results/table1/coh_3.xlsx
+++ b/results/table1/coh_3.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,10 +519,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1467</v>
+        <v>3514</v>
       </c>
       <c r="E4" t="n">
-        <v>6130</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="5">
@@ -541,12 +541,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>612 (41.7)</t>
+          <t>942 (26.8)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2291 (37.4)</t>
+          <t>2518 (38.2)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>350 (23.9)</t>
+          <t>836 (23.8)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1411 (23.0)</t>
+          <t>1507 (22.9)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>298 (20.3)</t>
+          <t>920 (26.2)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1385 (22.6)</t>
+          <t>1455 (22.1)</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>207 (14.1)</t>
+          <t>816 (23.2)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1043 (17.0)</t>
+          <t>1106 (16.8)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>687 (46.8)</t>
+          <t>1505 (42.8)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2591 (42.3)</t>
+          <t>2781 (42.2)</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>557 (38.0)</t>
+          <t>1398 (39.8)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3014 (49.2)</t>
+          <t>3252 (49.4)</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>204 (13.9)</t>
+          <t>396 (11.3)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>348 (5.7)</t>
+          <t>374 (5.7)</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>706 (48.1)</t>
+          <t>1720 (48.9)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2768 (45.2)</t>
+          <t>2960 (44.9)</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>461 (31.4)</t>
+          <t>788 (22.4)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>308 (5.0)</t>
+          <t>335 (5.1)</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>101 (6.9)</t>
+          <t>208 (5.9)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>718 (11.7)</t>
+          <t>751 (11.4)</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>511 (34.8)</t>
+          <t>1245 (35.4)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2592 (42.3)</t>
+          <t>2756 (41.8)</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>303 (20.7)</t>
+          <t>947 (26.9)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1222 (19.9)</t>
+          <t>1504 (22.8)</t>
         </is>
       </c>
     </row>
@@ -811,19 +811,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>433 (29.5)</t>
+          <t>1218 (34.7)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1776 (29.0)</t>
+          <t>2118 (32.2)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Mechanical Ventilation (whole stay), n (%)</t>
+          <t>MV initiated until the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -836,19 +836,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1036 (70.6)</t>
+          <t>2588 (73.6)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4508 (73.5)</t>
+          <t>4558 (69.2)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RRT (whole stay), n (%)</t>
+          <t>RRT initiated until the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>280 (19.1)</t>
+          <t>492 (14.0)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>829 (13.5)</t>
+          <t>676 (10.3)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Vasopressors (whole stay), n (%)</t>
+          <t>Vasopressor initiated until the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -886,24 +886,24 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>830 (56.6)</t>
+          <t>1956 (55.7)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3860 (63.0)</t>
+          <t>3817 (58.0)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Insulin Transfusion (whole stay), n (%)</t>
+          <t>Mechanical Ventilation (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -911,24 +911,24 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>995 (67.8)</t>
+          <t>2760 (78.5)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3993 (65.1)</t>
+          <t>4904 (74.5)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Blood Transufusion (whole stay), n (%)</t>
+          <t>RRT (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -936,24 +936,24 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>178 (12.1)</t>
+          <t>667 (19.0)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>879 (14.3)</t>
+          <t>971 (14.7)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fluids Received (whole stay), n (%)</t>
+          <t>Vasopressors (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -961,19 +961,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1449 (98.8)</t>
+          <t>2180 (62.0)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6078 (99.2)</t>
+          <t>4234 (64.3)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Hypertension, n (%)</t>
+          <t>Insulin Transfusion (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -986,19 +986,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1044 (71.2)</t>
+          <t>2340 (66.6)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3970 (64.8)</t>
+          <t>4356 (66.1)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Congestive Heart Failure, n (%)</t>
+          <t>Blood Transufusion (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -1011,19 +1011,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>585 (39.9)</t>
+          <t>474 (13.5)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2348 (38.3)</t>
+          <t>961 (14.6)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>COPD, n (%)</t>
+          <t>Fluids Received (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1036,19 +1036,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>362 (24.7)</t>
+          <t>3482 (99.1)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1567 (25.6)</t>
+          <t>6534 (99.2)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Asthma, n (%)</t>
+          <t>Hypertension, n (%)</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1061,19 +1061,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>20 (1.4)</t>
+          <t>2327 (66.2)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>103 (1.7)</t>
+          <t>4251 (64.5)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Coronary Artery Disease, n (%)</t>
+          <t>Congestive Heart Failure, n (%)</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1086,109 +1086,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>436 (29.7)</t>
+          <t>1276 (36.3)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2268 (37.0)</t>
+          <t>2546 (38.7)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
+          <t>COPD, n (%)</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>846 (24.1)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1689 (25.6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Asthma, n (%)</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>43 (1.2)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>119 (1.8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Coronary Artery Disease, n (%)</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1110 (31.6)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2431 (36.9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
           <t>CKD Stage, n (%)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1 (0.1)</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>9 (0.6)</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>42 (0.7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>114 (7.8)</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>296 (4.8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>41 (2.8)</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>114 (1.9)</t>
-        </is>
-      </c>
+          <t>2 (0.1)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>169 (11.5)</t>
+          <t>20 (0.6)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>307 (5.0)</t>
+          <t>43 (0.7)</t>
         </is>
       </c>
     </row>
@@ -1196,43 +1214,37 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1133 (77.2)</t>
+          <t>202 (5.7)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5371 (87.6)</t>
+          <t>312 (4.7)</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Diabetes Type, n (%)</t>
-        </is>
-      </c>
+      <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>48 (3.3)</t>
+          <t>72 (2.0)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>164 (2.7)</t>
+          <t>124 (1.9)</t>
         </is>
       </c>
     </row>
@@ -1240,18 +1252,18 @@
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>597 (40.7)</t>
+          <t>266 (7.6)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1709 (27.9)</t>
+          <t>336 (5.1)</t>
         </is>
       </c>
     </row>
@@ -1265,19 +1277,19 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>822 (56.0)</t>
+          <t>2952 (84.0)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4257 (69.4)</t>
+          <t>5771 (87.6)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Connective Tissue Disease, n (%)</t>
+          <t>Diabetes Type, n (%)</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -1290,69 +1302,57 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>70 (4.8)</t>
+          <t>82 (2.3)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>289 (4.7)</t>
+          <t>179 (2.7)</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Pneumonia, n (%)</t>
-        </is>
-      </c>
+      <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>83 (5.7)</t>
+          <t>1166 (33.2)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>339 (5.5)</t>
+          <t>1827 (27.7)</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Urinary Tract Infection, n (%)</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11 (0.7)</t>
+          <t>2266 (64.5)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>38 (0.6)</t>
+          <t>4580 (69.5)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Biliary Tract Infection, n (%)</t>
+          <t>Connective Tissue Disease, n (%)</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -1363,17 +1363,21 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>143 (4.1)</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11 (0.2)</t>
+          <t>314 (4.8)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Skin Infection, n (%)</t>
+          <t>Pneumonia, n (%)</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1386,24 +1390,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2 (0.1)</t>
+          <t>209 (5.9)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7 (0.1)</t>
+          <t>358 (5.4)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>MV_elig_day, n (%)</t>
+          <t>Urinary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1411,24 +1415,24 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>42 (2.9)</t>
+          <t>22 (0.6)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>199 (3.2)</t>
+          <t>42 (0.6)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>RRT_elig_day, n (%)</t>
+          <t>Biliary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1436,24 +1440,24 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>27 (1.8)</t>
+          <t>2 (0.1)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>109 (1.8)</t>
+          <t>13 (0.2)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>VP_elig_day, n (%)</t>
+          <t>Skin Infection, n (%)</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1461,1288 +1465,988 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>38 (2.6)</t>
+          <t>3 (0.1)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>173 (2.8)</t>
+          <t>7 (0.1)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>MV initiated in day 1, n (%)</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Age, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>845 (57.6)</t>
+          <t>64 [51,75]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3649 (59.5)</t>
+          <t>68 [57,78]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>RRT initiated in day 1, n (%)</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>7649</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>146 (10.0)</t>
+          <t>8.25 [5.50,13.06]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>357 (5.8)</t>
+          <t>8.25 [5.67,13.00]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor initiated in day 1, n (%)</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2451</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>640 (43.6)</t>
+          <t>7.92 [5.33,13.19]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3022 (49.3)</t>
+          <t>7.17 [5.13,11.78]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>MV initiated in day 2, n (%)</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Hospital LOS (days, if deceased), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>7649</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>72 (4.9)</t>
+          <t>12.00 [7.00,20.00]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>361 (5.9)</t>
+          <t>13.00 [8.00,21.00]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>RRT initiated in day 2, n (%)</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Hospital LOS (days, if survived), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>2451</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>43 (2.9)</t>
+          <t>17.00 [11.00,26.00]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>142 (2.3)</t>
+          <t>15.00 [10.00,24.00]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor initiated in day 2, n (%)</t>
-        </is>
-      </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr"/>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>69 (4.7)</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>328 (5.4)</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>MV initiated in day 3, n (%)</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA Score (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr"/>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>40 (2.7)</t>
+          <t>6 [4,10]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>194 (3.2)</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>RRT initiated in day 3, n (%)</t>
-        </is>
-      </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA: Respiratory (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>2792</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>27 (1.8)</t>
+          <t>3 [1,4]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>105 (1.7)</t>
+          <t>2 [2,3]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor initiated in day 3, n (%)</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA: Coagulation (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>36 (2.5)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>170 (2.8)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>MV initiated in day 4, n (%)</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA: Liver (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>3526</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>34 (2.3)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>107 (1.7)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>RRT initiated in day 4, n (%)</t>
-        </is>
-      </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA: Cardiovascular (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>18 (1.2)</t>
+          <t>1 [1,4]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>57 (0.9)</t>
+          <t>1 [1,4]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor initiated in day 4, n (%)</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA: CNS (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>25 (1.7)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>101 (1.6)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Age, median [Q1,Q3]</t>
+          <t>SOFA: Renal (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>64 [51,74]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>67 [57,77]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>sofa_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>6072</v>
+        <v>9</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7.63 [5.44,11.84]</t>
+          <t>6.0 [3.0,9.0]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>7.88 [5.54,11.83]</t>
+          <t>6.0 [4.0,8.0]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+          <t>respiratory_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>1525</v>
+        <v>9</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>7.21 [5.08,11.83]</t>
+          <t>2.0 [0.0,3.0]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>7.04 [5.04,11.01]</t>
+          <t>2.0 [0.0,3.0]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Hospital LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>coagulation_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>6072</v>
+        <v>9</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>13.00 [8.00,22.00]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>13.00 [8.00,21.00]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Hospital LOS (days, if survived), median [Q1,Q3]</t>
+          <t>liver_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>1525</v>
+        <v>9</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>16.00 [11.00,25.00]</t>
+          <t>0.0 [0.0,0.0]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15.00 [10.00,23.00]</t>
+          <t>0.0 [0.0,0.0]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+          <t>cardiovascular_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>1.0 [1.0,4.0]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>1.0 [1.0,3.0]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>SOFA Score (admission), median [Q1,Q3]</t>
+          <t>cns_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6 [4,10]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Respiratory (admission), median [Q1,Q3]</t>
+          <t>renal_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>2265</v>
+        <v>9</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2 [1,4]</t>
+          <t>1.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2 [2,3]</t>
+          <t>1.0 [0.0,2.0]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Coagulation (admission), median [Q1,Q3]</t>
+          <t>Fluids Volume (first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>14</v>
+        <v>3558</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>950 [312,1678]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>880 [287,1697]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Liver (admission), median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>2789</v>
+        <v>84</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>5138 [2414,9959]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>4403 [1877,8699]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Cardiovascular (admission), median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1 [1,4]</t>
+          <t>573.2 [310.7,957.7]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1 [1,4]</t>
+          <t>516.3 [265.3,883.8]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>SOFA: CNS (admission), median [Q1,Q3]</t>
+          <t>FiO2 (mean %, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>21</v>
+        <v>5091</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>50 [40,61]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>50 [42,65]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Renal (admission), median [Q1,Q3]</t>
+          <t>MV_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2436</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>68.0 [27.0,133.0]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>56.0 [23.0,116.0]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>SOFA (day), median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>16</v>
+        <v>2436</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>5.0 [2.0,7.0]</t>
+          <t>0.32 [0.14,0.53]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5.0 [3.0,7.0]</t>
+          <t>0.27 [0.13,0.47]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Respiratory (day), median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>16</v>
+        <v>2436</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>2.0 [1.0,9.0]</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>3.0 [1.0,14.0]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Coagulation (day), median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>16</v>
+        <v>8462</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>26.0 [6.0,75.5]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>36.0 [8.0,88.0]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Liver (day), median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>16</v>
+        <v>3619</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>4.0 [1.0,22.0]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>4.0 [1.0,20.0]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Cardiovascular (day), median [Q1,Q3]</t>
+          <t>VP_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>16</v>
+        <v>3619</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.0 [0.0,2.0]</t>
+          <t>51.0 [17.0,112.0]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.0 [1.0,1.0]</t>
+          <t>48.5 [18.0,101.0]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>SOFA: CNS (day), median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>16</v>
+        <v>3619</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>0.24 [0.08,0.50]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>0.24 [0.09,0.47]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Renal (day), median [Q1,Q3]</t>
+          <t>Respiratory Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.0 [0.0,2.0]</t>
+          <t>19.8 [17.2,22.8]</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>19.5 [17.1,22.5]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (day), median [Q1,Q3]</t>
+          <t>Mean Blood Pressure (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>2462</v>
+        <v>21</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>553 [242,1250]</t>
+          <t>77.1 [71.1,85.0]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>532 [234,1165]</t>
+          <t>75.1 [69.4,82.2]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
+          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>70</v>
+        <v>581</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4405 [2011,8575]</t>
+          <t>37.0 [36.6,37.4]</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4132 [1773,8008]</t>
+          <t>36.9 [36.6,37.3]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
+          <t>SpO2 (%, mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>532.7 [276.3,912.8]</t>
+          <t>97.7 [96.0,99.0]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>505.5 [255.0,870.4]</t>
+          <t>97.2 [95.7,98.6]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>FiO2 (mean %), median [Q1,Q3]</t>
+          <t>Heart Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>4230</v>
+        <v>21</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>42 [40,51]</t>
+          <t>87.1 [76.2,100.4]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>48 [40,55]</t>
+          <t>87.3 [76.3,99.6]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>MV_time_abs_hours, median [Q1,Q3]</t>
+          <t>PaO2 (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>2053</v>
+        <v>2351</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>60.0 [25.0,115.0]</t>
+          <t>85.0 [68.0,118.0]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>51.0 [21.0,104.0]</t>
+          <t>85.0 [69.0,113.0]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>PaCO2 (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>2053</v>
+        <v>2351</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.30 [0.14,0.50]</t>
+          <t>44.0 [38.0,53.0]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.26 [0.12,0.46]</t>
+          <t>46.0 [39.0,54.0]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>pH (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>2053</v>
+        <v>1313</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2.5 [1.0,12.0]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3.0 [1.0,13.0]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Glucose (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B85" s="1" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>6488</v>
+        <v>35</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>22.0 [4.7,62.5]</t>
+          <t>158.0 [126.0,214.0]</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>32.0 [7.0,76.0]</t>
+          <t>152.0 [123.0,201.0]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Sodium (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>2858</v>
+        <v>16</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4.0 [1.0,22.0]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4.0 [1.0,19.0]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>VP_time_abs_hours, median [Q1,Q3]</t>
+          <t>Potassium (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B87" s="1" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>2858</v>
+        <v>19</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>45.0 [14.0,94.0]</t>
+          <t>4.5 [4.1,5.1]</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>44.0 [17.0,92.0]</t>
+          <t>4.5 [4.1,5.0]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>Cortisol (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B88" s="1" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>2858</v>
+        <v>9850</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.21 [0.07,0.46]</t>
+          <t>22.6 [13.4,35.6]</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.24 [0.08,0.46]</t>
+          <t>23.6 [13.6,38.4]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Respiratory Rate (mean), median [Q1,Q3]</t>
+          <t>Hemoglobin (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B89" s="1" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>17</v>
+        <v>1355</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>19.7 [17.3,22.4]</t>
+          <t>10.1 [8.5,11.8]</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>19.5 [17.4,22.2]</t>
+          <t>10.0 [8.5,11.6]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Mean Blood Pressure (mean), median [Q1,Q3]</t>
+          <t>Fibrinogen (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B90" s="1" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>15</v>
+        <v>6427</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>78.9 [72.6,86.9]</t>
+          <t>237.0 [159.0,362.0]</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>75.8 [70.5,82.6]</t>
+          <t>237.0 [161.0,364.0]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
+          <t>INR (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B91" s="1" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>184</v>
+        <v>514</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>37.0 [36.7,37.3]</t>
+          <t>1.3 [1.2,1.7]</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>37.0 [36.7,37.3]</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>SpO2 (%, mean), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="inlineStr"/>
-      <c r="C92" t="n">
-        <v>16</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>97.7 [96.3,98.8]</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>96.9 [95.7,98.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>Heart Rate (mean), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="inlineStr"/>
-      <c r="C93" t="n">
-        <v>15</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>87.5 [77.7,98.5]</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>86.7 [77.1,97.2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>PaO2 (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B94" s="1" t="inlineStr"/>
-      <c r="C94" t="n">
-        <v>1309</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>75.0 [62.0,100.0]</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>76.0 [63.0,95.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>PaCO2 (max), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="inlineStr"/>
-      <c r="C95" t="n">
-        <v>1309</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>46.0 [39.0,55.0]</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>47.0 [41.0,56.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>pH (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="inlineStr"/>
-      <c r="C96" t="n">
-        <v>648</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>7.3 [7.2,7.4]</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>7.3 [7.2,7.4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>Glucose (max), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B97" s="1" t="inlineStr"/>
-      <c r="C97" t="n">
-        <v>6</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>186.0 [147.0,254.0]</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>172.0 [143.0,226.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>Sodium (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B98" s="1" t="inlineStr"/>
-      <c r="C98" t="n">
-        <v>6</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>135.0 [132.0,138.0]</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>135.0 [132.0,138.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>Potassium (max), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="inlineStr"/>
-      <c r="C99" t="n">
-        <v>6</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>4.8 [4.4,5.5]</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>4.7 [4.3,5.2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>Cortisol (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B100" s="1" t="inlineStr"/>
-      <c r="C100" t="n">
-        <v>7453</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>17.9 [10.4,23.2]</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>20.0 [11.7,29.9]</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>Hemoglobin (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B101" s="1" t="inlineStr"/>
-      <c r="C101" t="n">
-        <v>245</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>9.5 [8.2,10.8]</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>9.6 [8.4,10.9]</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>Fibrinogen (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B102" s="1" t="inlineStr"/>
-      <c r="C102" t="n">
-        <v>4340</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>249.0 [153.5,387.5]</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>251.5 [164.2,390.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>INR (max), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B103" s="1" t="inlineStr"/>
-      <c r="C103" t="n">
-        <v>113</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>1.4 [1.2,2.0]</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>1.4 [1.2,1.9]</t>
+          <t>1.4 [1.2,1.8]</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A38:A40"/>
     <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A32:A37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/table1/coh_3.xlsx
+++ b/results/table1/coh_3.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,10 +519,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>3514</v>
+        <v>1467</v>
       </c>
       <c r="E4" t="n">
-        <v>6586</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="5">
@@ -541,12 +541,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>942 (26.8)</t>
+          <t>612 (41.7)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2518 (38.2)</t>
+          <t>2291 (37.4)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>836 (23.8)</t>
+          <t>350 (23.9)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1507 (22.9)</t>
+          <t>1411 (23.0)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>920 (26.2)</t>
+          <t>298 (20.3)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1455 (22.1)</t>
+          <t>1385 (22.6)</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>816 (23.2)</t>
+          <t>207 (14.1)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1106 (16.8)</t>
+          <t>1043 (17.0)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1505 (42.8)</t>
+          <t>687 (46.8)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2781 (42.2)</t>
+          <t>2591 (42.3)</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1398 (39.8)</t>
+          <t>557 (38.0)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3252 (49.4)</t>
+          <t>3014 (49.2)</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>396 (11.3)</t>
+          <t>204 (13.9)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>374 (5.7)</t>
+          <t>348 (5.7)</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1720 (48.9)</t>
+          <t>706 (48.1)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2960 (44.9)</t>
+          <t>2768 (45.2)</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>788 (22.4)</t>
+          <t>461 (31.4)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>335 (5.1)</t>
+          <t>308 (5.0)</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>208 (5.9)</t>
+          <t>101 (6.9)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>751 (11.4)</t>
+          <t>718 (11.7)</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1245 (35.4)</t>
+          <t>511 (34.8)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2756 (41.8)</t>
+          <t>2592 (42.3)</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>947 (26.9)</t>
+          <t>303 (20.7)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1504 (22.8)</t>
+          <t>1222 (19.9)</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1218 (34.7)</t>
+          <t>433 (29.5)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2118 (32.2)</t>
+          <t>1776 (29.0)</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2588 (73.6)</t>
+          <t>957 (65.2)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4558 (69.2)</t>
+          <t>4204 (68.6)</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>492 (14.0)</t>
+          <t>216 (14.7)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>676 (10.3)</t>
+          <t>604 (9.9)</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1956 (55.7)</t>
+          <t>745 (50.8)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3817 (58.0)</t>
+          <t>3520 (57.4)</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2760 (78.5)</t>
+          <t>1036 (70.6)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4904 (74.5)</t>
+          <t>4508 (73.5)</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>667 (19.0)</t>
+          <t>280 (19.1)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>971 (14.7)</t>
+          <t>829 (13.5)</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2180 (62.0)</t>
+          <t>830 (56.6)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4234 (64.3)</t>
+          <t>3860 (63.0)</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2340 (66.6)</t>
+          <t>995 (67.8)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4356 (66.1)</t>
+          <t>3993 (65.1)</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>474 (13.5)</t>
+          <t>178 (12.1)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>961 (14.6)</t>
+          <t>879 (14.3)</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3482 (99.1)</t>
+          <t>1449 (98.8)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6534 (99.2)</t>
+          <t>6078 (99.2)</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2327 (66.2)</t>
+          <t>1044 (71.2)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4251 (64.5)</t>
+          <t>3970 (64.8)</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1276 (36.3)</t>
+          <t>585 (39.9)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2546 (38.7)</t>
+          <t>2348 (38.3)</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>846 (24.1)</t>
+          <t>362 (24.7)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1689 (25.6)</t>
+          <t>1567 (25.6)</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>43 (1.2)</t>
+          <t>20 (1.4)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>119 (1.8)</t>
+          <t>103 (1.7)</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1110 (31.6)</t>
+          <t>436 (29.7)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2431 (36.9)</t>
+          <t>2268 (37.0)</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2 (0.1)</t>
+          <t>1 (0.1)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1201,12 +1201,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>20 (0.6)</t>
+          <t>9 (0.6)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>43 (0.7)</t>
+          <t>42 (0.7)</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>202 (5.7)</t>
+          <t>114 (7.8)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>312 (4.7)</t>
+          <t>296 (4.8)</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>72 (2.0)</t>
+          <t>41 (2.8)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>124 (1.9)</t>
+          <t>114 (1.9)</t>
         </is>
       </c>
     </row>
@@ -1258,12 +1258,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>266 (7.6)</t>
+          <t>169 (11.5)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>336 (5.1)</t>
+          <t>307 (5.0)</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1277,12 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2952 (84.0)</t>
+          <t>1133 (77.2)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5771 (87.6)</t>
+          <t>5371 (87.6)</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1302,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>82 (2.3)</t>
+          <t>48 (3.3)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>179 (2.7)</t>
+          <t>164 (2.7)</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1166 (33.2)</t>
+          <t>597 (40.7)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1827 (27.7)</t>
+          <t>1709 (27.9)</t>
         </is>
       </c>
     </row>
@@ -1340,12 +1340,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2266 (64.5)</t>
+          <t>822 (56.0)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4580 (69.5)</t>
+          <t>4257 (69.4)</t>
         </is>
       </c>
     </row>
@@ -1365,12 +1365,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>143 (4.1)</t>
+          <t>70 (4.8)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>314 (4.8)</t>
+          <t>289 (4.7)</t>
         </is>
       </c>
     </row>
@@ -1390,12 +1390,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>209 (5.9)</t>
+          <t>83 (5.7)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>358 (5.4)</t>
+          <t>339 (5.5)</t>
         </is>
       </c>
     </row>
@@ -1415,12 +1415,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>22 (0.6)</t>
+          <t>11 (0.7)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>42 (0.6)</t>
+          <t>38 (0.6)</t>
         </is>
       </c>
     </row>
@@ -1438,14 +1438,10 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2 (0.1)</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13 (0.2)</t>
+          <t>11 (0.2)</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1461,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3 (0.1)</t>
+          <t>2 (0.1)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1486,12 +1482,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>64 [51,75]</t>
+          <t>64 [51,74]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>68 [57,78]</t>
+          <t>67 [57,77]</t>
         </is>
       </c>
     </row>
@@ -1503,16 +1499,16 @@
       </c>
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>7649</v>
+        <v>6072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8.25 [5.50,13.06]</t>
+          <t>7.63 [5.44,11.84]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>8.25 [5.67,13.00]</t>
+          <t>7.88 [5.54,11.83]</t>
         </is>
       </c>
     </row>
@@ -1524,16 +1520,16 @@
       </c>
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>2451</v>
+        <v>1525</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7.92 [5.33,13.19]</t>
+          <t>7.21 [5.08,11.83]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.17 [5.13,11.78]</t>
+          <t>7.04 [5.04,11.01]</t>
         </is>
       </c>
     </row>
@@ -1545,11 +1541,11 @@
       </c>
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>7649</v>
+        <v>6072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12.00 [7.00,20.00]</t>
+          <t>13.00 [8.00,22.00]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1566,16 +1562,16 @@
       </c>
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>2451</v>
+        <v>1525</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>17.00 [11.00,26.00]</t>
+          <t>16.00 [11.00,25.00]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15.00 [10.00,24.00]</t>
+          <t>15.00 [10.00,23.00]</t>
         </is>
       </c>
     </row>
@@ -1629,11 +1625,11 @@
       </c>
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>2792</v>
+        <v>2265</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3 [1,4]</t>
+          <t>2 [1,4]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1650,7 +1646,7 @@
       </c>
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1671,7 +1667,7 @@
       </c>
       <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>3526</v>
+        <v>2789</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1692,7 +1688,7 @@
       </c>
       <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1713,7 +1709,7 @@
       </c>
       <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1750,691 +1746,544 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>sofa_max_0_24h, median [Q1,Q3]</t>
+          <t>Fluids Volume (first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>9</v>
+        <v>2844</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6.0 [3.0,9.0]</t>
+          <t>900 [279,1569]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6.0 [4.0,8.0]</t>
+          <t>848 [275,1660]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>respiratory_max_0_24h, median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2.0 [0.0,3.0]</t>
+          <t>4405 [2011,8575]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2.0 [0.0,3.0]</t>
+          <t>4132 [1773,8008]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>coagulation_max_0_24h, median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>532.7 [276.3,912.8]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>505.5 [255.0,870.4]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>liver_max_0_24h, median [Q1,Q3]</t>
+          <t>FiO2 (mean %, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>9</v>
+        <v>4081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>50 [40,61]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>50 [42,65]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>cardiovascular_max_0_24h, median [Q1,Q3]</t>
+          <t>MV_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>9</v>
+        <v>2053</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1.0 [1.0,4.0]</t>
+          <t>60.0 [25.0,115.0]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.0 [1.0,3.0]</t>
+          <t>51.0 [21.0,104.0]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>cns_max_0_24h, median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>9</v>
+        <v>2053</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>0.30 [0.14,0.50]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>0.26 [0.12,0.46]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>renal_max_0_24h, median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>9</v>
+        <v>2053</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.0 [0.0,2.0]</t>
+          <t>2.5 [1.0,12.0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.0 [0.0,2.0]</t>
+          <t>3.0 [1.0,13.0]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (first 24h), median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>3558</v>
+        <v>6488</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>950 [312,1678]</t>
+          <t>22.0 [4.7,62.5]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>880 [287,1697]</t>
+          <t>32.0 [7.0,76.0]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>84</v>
+        <v>2858</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5138 [2414,9959]</t>
+          <t>4.0 [1.0,22.0]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4403 [1877,8699]</t>
+          <t>4.0 [1.0,19.0]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
+          <t>VP_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>84</v>
+        <v>2858</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>573.2 [310.7,957.7]</t>
+          <t>45.0 [14.0,94.0]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>516.3 [265.3,883.8]</t>
+          <t>44.0 [17.0,92.0]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>FiO2 (mean %, first 24h), median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>5091</v>
+        <v>2858</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>50 [40,61]</t>
+          <t>0.21 [0.07,0.46]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>50 [42,65]</t>
+          <t>0.24 [0.08,0.46]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>MV_time_abs_hours, median [Q1,Q3]</t>
+          <t>Respiratory Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>2436</v>
+        <v>22</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>68.0 [27.0,133.0]</t>
+          <t>19.7 [17.1,22.9]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>56.0 [23.0,116.0]</t>
+          <t>19.4 [17.1,22.4]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>Mean Blood Pressure (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>2436</v>
+        <v>17</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.32 [0.14,0.53]</t>
+          <t>77.9 [71.5,86.4]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.27 [0.13,0.47]</t>
+          <t>75.1 [69.5,82.3]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>2436</v>
+        <v>430</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2.0 [1.0,9.0]</t>
+          <t>36.9 [36.6,37.4]</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3.0 [1.0,14.0]</t>
+          <t>36.9 [36.6,37.3]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>SpO2 (%, mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>8462</v>
+        <v>18</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>26.0 [6.0,75.5]</t>
+          <t>97.9 [96.2,99.2]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>36.0 [8.0,88.0]</t>
+          <t>97.3 [95.7,98.6]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Heart Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>3619</v>
+        <v>17</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4.0 [1.0,22.0]</t>
+          <t>88.4 [76.6,101.4]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4.0 [1.0,20.0]</t>
+          <t>87.1 [76.1,99.3]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>VP_time_abs_hours, median [Q1,Q3]</t>
+          <t>PaO2 (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>3619</v>
+        <v>1917</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>51.0 [17.0,112.0]</t>
+          <t>84.5 [66.0,119.0]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>48.5 [18.0,101.0]</t>
+          <t>85.0 [69.0,113.0]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>PaCO2 (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>3619</v>
+        <v>1917</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.24 [0.08,0.50]</t>
+          <t>44.0 [37.0,53.0]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.24 [0.09,0.47]</t>
+          <t>46.0 [39.0,54.0]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Respiratory Rate (mean, first 24h), median [Q1,Q3]</t>
+          <t>pH (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>26</v>
+        <v>1083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>19.8 [17.2,22.8]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>19.5 [17.1,22.5]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Mean Blood Pressure (mean, first 24h), median [Q1,Q3]</t>
+          <t>Glucose (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>77.1 [71.1,85.0]</t>
+          <t>160.0 [124.0,226.0]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>75.1 [69.4,82.2]</t>
+          <t>152.0 [122.0,200.0]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
+          <t>Sodium (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>581</v>
+        <v>11</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>37.0 [36.6,37.4]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>36.9 [36.6,37.3]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>SpO2 (%, mean, first 24h), median [Q1,Q3]</t>
+          <t>Potassium (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>97.7 [96.0,99.0]</t>
+          <t>4.5 [4.1,5.2]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>97.2 [95.7,98.6]</t>
+          <t>4.5 [4.1,5.0]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Heart Rate (mean, first 24h), median [Q1,Q3]</t>
+          <t>Cortisol (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>21</v>
+        <v>7411</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>87.1 [76.2,100.4]</t>
+          <t>17.8 [13.0,28.8]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>87.3 [76.3,99.6]</t>
+          <t>23.4 [13.5,36.8]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>PaO2 (min, first 24h), median [Q1,Q3]</t>
+          <t>Hemoglobin (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>2351</v>
+        <v>1022</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>85.0 [68.0,118.0]</t>
+          <t>9.9 [8.3,11.6]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>85.0 [69.0,113.0]</t>
+          <t>10.0 [8.5,11.6]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>PaCO2 (max, first 24h), median [Q1,Q3]</t>
+          <t>Fibrinogen (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>2351</v>
+        <v>4934</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>44.0 [38.0,53.0]</t>
+          <t>228.0 [150.5,365.0]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>46.0 [39.0,54.0]</t>
+          <t>235.0 [160.0,359.5]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>pH (min, first 24h), median [Q1,Q3]</t>
+          <t>INR (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>1313</v>
+        <v>441</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>1.4 [1.2,1.8]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
-        <is>
-          <t>7.3 [7.2,7.4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Glucose (max, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="inlineStr"/>
-      <c r="C85" t="n">
-        <v>35</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>158.0 [126.0,214.0]</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>152.0 [123.0,201.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>Sodium (min, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="inlineStr"/>
-      <c r="C86" t="n">
-        <v>16</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>137.0 [134.0,140.0]</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>137.0 [134.0,140.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>Potassium (max, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="inlineStr"/>
-      <c r="C87" t="n">
-        <v>19</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>4.5 [4.1,5.1]</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>4.5 [4.1,5.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>Cortisol (min, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="inlineStr"/>
-      <c r="C88" t="n">
-        <v>9850</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>22.6 [13.4,35.6]</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>23.6 [13.6,38.4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>Hemoglobin (min, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="inlineStr"/>
-      <c r="C89" t="n">
-        <v>1355</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>10.1 [8.5,11.8]</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>10.0 [8.5,11.6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>Fibrinogen (min, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="inlineStr"/>
-      <c r="C90" t="n">
-        <v>6427</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>237.0 [159.0,362.0]</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>237.0 [161.0,364.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>INR (max, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B91" s="1" t="inlineStr"/>
-      <c r="C91" t="n">
-        <v>514</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>1.3 [1.2,1.7]</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
         <is>
           <t>1.4 [1.2,1.8]</t>
         </is>

--- a/results/table1/coh_3.xlsx
+++ b/results/table1/coh_3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/results/table1/coh_3.xlsx
+++ b/results/table1/coh_3.xlsx
@@ -519,10 +519,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1467</v>
+        <v>1568</v>
       </c>
       <c r="E4" t="n">
-        <v>6130</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="5">
@@ -541,12 +541,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>612 (41.7)</t>
+          <t>659 (42.0)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2291 (37.4)</t>
+          <t>2526 (38.3)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>350 (23.9)</t>
+          <t>377 (24.0)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1411 (23.0)</t>
+          <t>1509 (22.9)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>298 (20.3)</t>
+          <t>318 (20.3)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1385 (22.6)</t>
+          <t>1456 (22.1)</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>207 (14.1)</t>
+          <t>214 (13.6)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1043 (17.0)</t>
+          <t>1106 (16.8)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>687 (46.8)</t>
+          <t>731 (46.6)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2591 (42.3)</t>
+          <t>2786 (42.2)</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>557 (38.0)</t>
+          <t>590 (37.6)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3014 (49.2)</t>
+          <t>3258 (49.4)</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>204 (13.9)</t>
+          <t>222 (14.2)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>348 (5.7)</t>
+          <t>376 (5.7)</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>706 (48.1)</t>
+          <t>756 (48.2)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2768 (45.2)</t>
+          <t>2963 (44.9)</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>461 (31.4)</t>
+          <t>495 (31.6)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>308 (5.0)</t>
+          <t>336 (5.1)</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>101 (6.9)</t>
+          <t>104 (6.6)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>718 (11.7)</t>
+          <t>753 (11.4)</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>511 (34.8)</t>
+          <t>539 (34.4)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2592 (42.3)</t>
+          <t>2760 (41.8)</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>303 (20.7)</t>
+          <t>365 (23.3)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1222 (19.9)</t>
+          <t>1508 (22.9)</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>433 (29.5)</t>
+          <t>505 (32.2)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1776 (29.0)</t>
+          <t>2122 (32.2)</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>957 (65.2)</t>
+          <t>1041 (66.4)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4204 (68.6)</t>
+          <t>4566 (69.2)</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>216 (14.7)</t>
+          <t>245 (15.6)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>604 (9.9)</t>
+          <t>680 (10.3)</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>745 (50.8)</t>
+          <t>819 (52.2)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3520 (57.4)</t>
+          <t>3823 (58.0)</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1036 (70.6)</t>
+          <t>1131 (72.1)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4508 (73.5)</t>
+          <t>4913 (74.5)</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>280 (19.1)</t>
+          <t>324 (20.7)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>829 (13.5)</t>
+          <t>976 (14.8)</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>830 (56.6)</t>
+          <t>922 (58.8)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3860 (63.0)</t>
+          <t>4241 (64.3)</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>995 (67.8)</t>
+          <t>1074 (68.5)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3993 (65.1)</t>
+          <t>4362 (66.1)</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>178 (12.1)</t>
+          <t>199 (12.7)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>879 (14.3)</t>
+          <t>962 (14.6)</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1449 (98.8)</t>
+          <t>1550 (98.9)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6078 (99.2)</t>
+          <t>6545 (99.2)</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1044 (71.2)</t>
+          <t>1119 (71.4)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3970 (64.8)</t>
+          <t>4255 (64.5)</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>585 (39.9)</t>
+          <t>623 (39.7)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2348 (38.3)</t>
+          <t>2549 (38.6)</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>362 (24.7)</t>
+          <t>382 (24.4)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1567 (25.6)</t>
+          <t>1690 (25.6)</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20 (1.4)</t>
+          <t>21 (1.3)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>103 (1.7)</t>
+          <t>119 (1.8)</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>436 (29.7)</t>
+          <t>463 (29.5)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2268 (37.0)</t>
+          <t>2432 (36.9)</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9 (0.6)</t>
+          <t>10 (0.6)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>42 (0.7)</t>
+          <t>43 (0.7)</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>114 (7.8)</t>
+          <t>121 (7.7)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>296 (4.8)</t>
+          <t>312 (4.7)</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>41 (2.8)</t>
+          <t>44 (2.8)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>114 (1.9)</t>
+          <t>124 (1.9)</t>
         </is>
       </c>
     </row>
@@ -1258,12 +1258,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>169 (11.5)</t>
+          <t>185 (11.8)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>307 (5.0)</t>
+          <t>338 (5.1)</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1277,12 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1133 (77.2)</t>
+          <t>1207 (77.0)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5371 (87.6)</t>
+          <t>5780 (87.6)</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1302,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>48 (3.3)</t>
+          <t>49 (3.1)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>164 (2.7)</t>
+          <t>179 (2.7)</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>597 (40.7)</t>
+          <t>634 (40.4)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1709 (27.9)</t>
+          <t>1828 (27.7)</t>
         </is>
       </c>
     </row>
@@ -1340,12 +1340,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>822 (56.0)</t>
+          <t>885 (56.4)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4257 (69.4)</t>
+          <t>4590 (69.6)</t>
         </is>
       </c>
     </row>
@@ -1365,12 +1365,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>70 (4.8)</t>
+          <t>73 (4.7)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>289 (4.7)</t>
+          <t>315 (4.8)</t>
         </is>
       </c>
     </row>
@@ -1390,12 +1390,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>83 (5.7)</t>
+          <t>90 (5.7)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>339 (5.5)</t>
+          <t>358 (5.4)</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>38 (0.6)</t>
+          <t>42 (0.6)</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11 (0.2)</t>
+          <t>13 (0.2)</t>
         </is>
       </c>
     </row>
@@ -1482,12 +1482,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>64 [51,74]</t>
+          <t>64 [51,75]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>67 [57,77]</t>
+          <t>68 [57,78]</t>
         </is>
       </c>
     </row>
@@ -1499,16 +1499,16 @@
       </c>
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>6072</v>
+        <v>6292</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7.63 [5.44,11.84]</t>
+          <t>8.00 [5.50,12.58]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.88 [5.54,11.83]</t>
+          <t>8.25 [5.70,13.00]</t>
         </is>
       </c>
     </row>
@@ -1520,16 +1520,16 @@
       </c>
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>1525</v>
+        <v>1873</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7.21 [5.08,11.83]</t>
+          <t>7.54 [5.13,12.58]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.04 [5.04,11.01]</t>
+          <t>7.17 [5.13,11.79]</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>6072</v>
+        <v>6292</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1562,16 +1562,16 @@
       </c>
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>1525</v>
+        <v>1873</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>16.00 [11.00,25.00]</t>
+          <t>17.00 [11.00,26.00]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15.00 [10.00,23.00]</t>
+          <t>15.00 [10.00,24.00]</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>2265</v>
+        <v>2409</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>2789</v>
+        <v>2934</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1751,16 +1751,16 @@
       </c>
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>2844</v>
+        <v>3043</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>900 [279,1569]</t>
+          <t>915 [289,1601]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>848 [275,1660]</t>
+          <t>877 [285,1695]</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4405 [2011,8575]</t>
+          <t>4722 [2123,9457]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4132 [1773,8008]</t>
+          <t>4403 [1879,8700]</t>
         </is>
       </c>
     </row>
@@ -1797,12 +1797,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>532.7 [276.3,912.8]</t>
+          <t>553.1 [296.4,947.0]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>505.5 [255.0,870.4]</t>
+          <t>516.5 [265.4,884.1]</t>
         </is>
       </c>
     </row>
@@ -1814,11 +1814,11 @@
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>4081</v>
+        <v>4359</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>50 [40,61]</t>
+          <t>50 [40,60]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1835,16 +1835,16 @@
       </c>
       <c r="B63" s="1" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>2053</v>
+        <v>2121</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>60.0 [25.0,115.0]</t>
+          <t>66.0 [27.0,134.0]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>51.0 [21.0,104.0]</t>
+          <t>56.0 [23.0,116.0]</t>
         </is>
       </c>
     </row>
@@ -1856,16 +1856,16 @@
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>2053</v>
+        <v>2121</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.30 [0.14,0.50]</t>
+          <t>0.32 [0.15,0.52]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.26 [0.12,0.46]</t>
+          <t>0.27 [0.13,0.47]</t>
         </is>
       </c>
     </row>
@@ -1877,16 +1877,16 @@
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>2053</v>
+        <v>2121</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2.5 [1.0,12.0]</t>
+          <t>3.0 [1.0,13.0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,13.0]</t>
+          <t>3.0 [1.0,14.0]</t>
         </is>
       </c>
     </row>
@@ -1898,16 +1898,16 @@
       </c>
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>6488</v>
+        <v>6865</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>22.0 [4.7,62.5]</t>
+          <t>24.0 [5.0,69.5]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>32.0 [7.0,76.0]</t>
+          <t>36.0 [8.0,88.0]</t>
         </is>
       </c>
     </row>
@@ -1919,16 +1919,16 @@
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>2858</v>
+        <v>2952</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,22.0]</t>
+          <t>4.0 [1.0,22.2]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,19.0]</t>
+          <t>4.0 [1.0,20.0]</t>
         </is>
       </c>
     </row>
@@ -1940,16 +1940,16 @@
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>2858</v>
+        <v>2952</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>45.0 [14.0,94.0]</t>
+          <t>48.5 [15.0,104.0]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>44.0 [17.0,92.0]</t>
+          <t>49.0 [18.0,101.0]</t>
         </is>
       </c>
     </row>
@@ -1961,16 +1961,16 @@
       </c>
       <c r="B69" s="1" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>2858</v>
+        <v>2952</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.21 [0.07,0.46]</t>
+          <t>0.22 [0.07,0.49]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.24 [0.08,0.46]</t>
+          <t>0.24 [0.09,0.47]</t>
         </is>
       </c>
     </row>
@@ -1982,16 +1982,16 @@
       </c>
       <c r="B70" s="1" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>19.7 [17.1,22.9]</t>
+          <t>19.7 [17.1,23.0]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>19.4 [17.1,22.4]</t>
+          <t>19.5 [17.1,22.5]</t>
         </is>
       </c>
     </row>
@@ -2003,16 +2003,16 @@
       </c>
       <c r="B71" s="1" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>77.9 [71.5,86.4]</t>
+          <t>77.6 [71.3,86.0]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>75.1 [69.5,82.3]</t>
+          <t>75.1 [69.4,82.2]</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B72" s="1" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2045,16 +2045,16 @@
       </c>
       <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>97.9 [96.2,99.2]</t>
+          <t>97.8 [96.1,99.2]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>97.3 [95.7,98.6]</t>
+          <t>97.2 [95.7,98.6]</t>
         </is>
       </c>
     </row>
@@ -2066,16 +2066,16 @@
       </c>
       <c r="B74" s="1" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>88.4 [76.6,101.4]</t>
+          <t>88.5 [76.9,101.4]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>87.1 [76.1,99.3]</t>
+          <t>87.3 [76.2,99.6]</t>
         </is>
       </c>
     </row>
@@ -2087,11 +2087,11 @@
       </c>
       <c r="B75" s="1" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>1917</v>
+        <v>2018</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>84.5 [66.0,119.0]</t>
+          <t>84.0 [66.0,118.0]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2108,11 +2108,11 @@
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>1917</v>
+        <v>2018</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>44.0 [37.0,53.0]</t>
+          <t>44.0 [37.0,54.0]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>1083</v>
+        <v>1140</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2150,16 +2150,16 @@
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>160.0 [124.0,226.0]</t>
+          <t>160.0 [124.0,224.5]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>152.0 [122.0,200.0]</t>
+          <t>152.0 [123.0,201.0]</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2213,16 +2213,16 @@
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>7411</v>
+        <v>7958</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>17.8 [13.0,28.8]</t>
+          <t>18.1 [13.1,30.4]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>23.4 [13.5,36.8]</t>
+          <t>23.7 [13.6,37.7]</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="B82" s="1" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>1022</v>
+        <v>1089</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2255,16 +2255,16 @@
       </c>
       <c r="B83" s="1" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>4934</v>
+        <v>5303</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>228.0 [150.5,365.0]</t>
+          <t>231.0 [150.5,361.5]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>235.0 [160.0,359.5]</t>
+          <t>237.0 [160.5,363.5]</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B84" s="1" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>

--- a/results/table1/coh_3.xlsx
+++ b/results/table1/coh_3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -519,10 +519,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1467</v>
+        <v>1568</v>
       </c>
       <c r="E4" t="n">
-        <v>6130</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="5">
@@ -541,12 +541,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>612 (41.7)</t>
+          <t>659 (42.0)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2291 (37.4)</t>
+          <t>2526 (38.3)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>350 (23.9)</t>
+          <t>377 (24.0)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1411 (23.0)</t>
+          <t>1509 (22.9)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>298 (20.3)</t>
+          <t>318 (20.3)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1385 (22.6)</t>
+          <t>1456 (22.1)</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>207 (14.1)</t>
+          <t>214 (13.6)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1043 (17.0)</t>
+          <t>1106 (16.8)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>687 (46.8)</t>
+          <t>731 (46.6)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2591 (42.3)</t>
+          <t>2786 (42.2)</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>557 (38.0)</t>
+          <t>590 (37.6)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3014 (49.2)</t>
+          <t>3258 (49.4)</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>204 (13.9)</t>
+          <t>222 (14.2)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>348 (5.7)</t>
+          <t>376 (5.7)</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>706 (48.1)</t>
+          <t>756 (48.2)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2768 (45.2)</t>
+          <t>2963 (44.9)</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>461 (31.4)</t>
+          <t>495 (31.6)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>308 (5.0)</t>
+          <t>336 (5.1)</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>101 (6.9)</t>
+          <t>104 (6.6)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>718 (11.7)</t>
+          <t>753 (11.4)</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>511 (34.8)</t>
+          <t>539 (34.4)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2592 (42.3)</t>
+          <t>2760 (41.8)</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>303 (20.7)</t>
+          <t>365 (23.3)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1222 (19.9)</t>
+          <t>1508 (22.9)</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>433 (29.5)</t>
+          <t>505 (32.2)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1776 (29.0)</t>
+          <t>2122 (32.2)</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>957 (65.2)</t>
+          <t>1041 (66.4)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4204 (68.6)</t>
+          <t>4566 (69.2)</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>216 (14.7)</t>
+          <t>245 (15.6)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>604 (9.9)</t>
+          <t>680 (10.3)</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>745 (50.8)</t>
+          <t>819 (52.2)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3520 (57.4)</t>
+          <t>3823 (58.0)</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1036 (70.6)</t>
+          <t>1131 (72.1)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4508 (73.5)</t>
+          <t>4913 (74.5)</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>280 (19.1)</t>
+          <t>324 (20.7)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>829 (13.5)</t>
+          <t>976 (14.8)</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>830 (56.6)</t>
+          <t>922 (58.8)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3860 (63.0)</t>
+          <t>4241 (64.3)</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>995 (67.8)</t>
+          <t>1074 (68.5)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3993 (65.1)</t>
+          <t>4362 (66.1)</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>178 (12.1)</t>
+          <t>199 (12.7)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>879 (14.3)</t>
+          <t>962 (14.6)</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1449 (98.8)</t>
+          <t>1550 (98.9)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6078 (99.2)</t>
+          <t>6545 (99.2)</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1044 (71.2)</t>
+          <t>1119 (71.4)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3970 (64.8)</t>
+          <t>4255 (64.5)</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>585 (39.9)</t>
+          <t>623 (39.7)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2348 (38.3)</t>
+          <t>2549 (38.6)</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>362 (24.7)</t>
+          <t>382 (24.4)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1567 (25.6)</t>
+          <t>1690 (25.6)</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20 (1.4)</t>
+          <t>21 (1.3)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>103 (1.7)</t>
+          <t>119 (1.8)</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>436 (29.7)</t>
+          <t>463 (29.5)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2268 (37.0)</t>
+          <t>2432 (36.9)</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9 (0.6)</t>
+          <t>10 (0.6)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>42 (0.7)</t>
+          <t>43 (0.7)</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>114 (7.8)</t>
+          <t>121 (7.7)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>296 (4.8)</t>
+          <t>312 (4.7)</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>41 (2.8)</t>
+          <t>44 (2.8)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>114 (1.9)</t>
+          <t>124 (1.9)</t>
         </is>
       </c>
     </row>
@@ -1258,12 +1258,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>169 (11.5)</t>
+          <t>185 (11.8)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>307 (5.0)</t>
+          <t>338 (5.1)</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1277,12 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1133 (77.2)</t>
+          <t>1207 (77.0)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5371 (87.6)</t>
+          <t>5780 (87.6)</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1302,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>48 (3.3)</t>
+          <t>49 (3.1)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>164 (2.7)</t>
+          <t>179 (2.7)</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>597 (40.7)</t>
+          <t>634 (40.4)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1709 (27.9)</t>
+          <t>1828 (27.7)</t>
         </is>
       </c>
     </row>
@@ -1340,12 +1340,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>822 (56.0)</t>
+          <t>885 (56.4)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4257 (69.4)</t>
+          <t>4590 (69.6)</t>
         </is>
       </c>
     </row>
@@ -1365,12 +1365,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>70 (4.8)</t>
+          <t>73 (4.7)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>289 (4.7)</t>
+          <t>315 (4.8)</t>
         </is>
       </c>
     </row>
@@ -1390,12 +1390,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>83 (5.7)</t>
+          <t>90 (5.7)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>339 (5.5)</t>
+          <t>358 (5.4)</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>38 (0.6)</t>
+          <t>42 (0.6)</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11 (0.2)</t>
+          <t>13 (0.2)</t>
         </is>
       </c>
     </row>
@@ -1482,12 +1482,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>64 [51,74]</t>
+          <t>64 [51,75]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>67 [57,77]</t>
+          <t>68 [57,78]</t>
         </is>
       </c>
     </row>
@@ -1499,16 +1499,16 @@
       </c>
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>6072</v>
+        <v>6292</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7.63 [5.44,11.84]</t>
+          <t>8.00 [5.50,12.58]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.88 [5.54,11.83]</t>
+          <t>8.25 [5.70,13.00]</t>
         </is>
       </c>
     </row>
@@ -1520,16 +1520,16 @@
       </c>
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>1525</v>
+        <v>1873</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7.21 [5.08,11.83]</t>
+          <t>7.54 [5.13,12.58]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.04 [5.04,11.01]</t>
+          <t>7.17 [5.13,11.79]</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>6072</v>
+        <v>6292</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1562,16 +1562,16 @@
       </c>
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>1525</v>
+        <v>1873</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>16.00 [11.00,25.00]</t>
+          <t>17.00 [11.00,26.00]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15.00 [10.00,23.00]</t>
+          <t>15.00 [10.00,24.00]</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>2265</v>
+        <v>2409</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>2789</v>
+        <v>2934</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1751,16 +1751,16 @@
       </c>
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>2844</v>
+        <v>3043</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>900 [279,1569]</t>
+          <t>915 [289,1601]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>848 [275,1660]</t>
+          <t>877 [285,1695]</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4405 [2011,8575]</t>
+          <t>4722 [2123,9457]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4132 [1773,8008]</t>
+          <t>4403 [1879,8700]</t>
         </is>
       </c>
     </row>
@@ -1797,12 +1797,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>532.7 [276.3,912.8]</t>
+          <t>553.1 [296.4,947.0]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>505.5 [255.0,870.4]</t>
+          <t>516.5 [265.4,884.1]</t>
         </is>
       </c>
     </row>
@@ -1814,11 +1814,11 @@
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>4081</v>
+        <v>4359</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>50 [40,61]</t>
+          <t>50 [40,60]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1835,16 +1835,16 @@
       </c>
       <c r="B63" s="1" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>2053</v>
+        <v>2121</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>60.0 [25.0,115.0]</t>
+          <t>66.0 [27.0,134.0]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>51.0 [21.0,104.0]</t>
+          <t>56.0 [23.0,116.0]</t>
         </is>
       </c>
     </row>
@@ -1856,16 +1856,16 @@
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>2053</v>
+        <v>2121</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.30 [0.14,0.50]</t>
+          <t>0.32 [0.15,0.52]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.26 [0.12,0.46]</t>
+          <t>0.27 [0.13,0.47]</t>
         </is>
       </c>
     </row>
@@ -1877,16 +1877,16 @@
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>2053</v>
+        <v>2121</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2.5 [1.0,12.0]</t>
+          <t>3.0 [1.0,13.0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,13.0]</t>
+          <t>3.0 [1.0,14.0]</t>
         </is>
       </c>
     </row>
@@ -1898,16 +1898,16 @@
       </c>
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>6488</v>
+        <v>6865</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>22.0 [4.7,62.5]</t>
+          <t>24.0 [5.0,69.5]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>32.0 [7.0,76.0]</t>
+          <t>36.0 [8.0,88.0]</t>
         </is>
       </c>
     </row>
@@ -1919,16 +1919,16 @@
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>2858</v>
+        <v>2952</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,22.0]</t>
+          <t>4.0 [1.0,22.2]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,19.0]</t>
+          <t>4.0 [1.0,20.0]</t>
         </is>
       </c>
     </row>
@@ -1940,16 +1940,16 @@
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>2858</v>
+        <v>2952</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>45.0 [14.0,94.0]</t>
+          <t>48.5 [15.0,104.0]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>44.0 [17.0,92.0]</t>
+          <t>49.0 [18.0,101.0]</t>
         </is>
       </c>
     </row>
@@ -1961,16 +1961,16 @@
       </c>
       <c r="B69" s="1" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>2858</v>
+        <v>2952</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.21 [0.07,0.46]</t>
+          <t>0.22 [0.07,0.49]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.24 [0.08,0.46]</t>
+          <t>0.24 [0.09,0.47]</t>
         </is>
       </c>
     </row>
@@ -1982,16 +1982,16 @@
       </c>
       <c r="B70" s="1" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>19.7 [17.1,22.9]</t>
+          <t>19.7 [17.1,23.0]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>19.4 [17.1,22.4]</t>
+          <t>19.5 [17.1,22.5]</t>
         </is>
       </c>
     </row>
@@ -2003,16 +2003,16 @@
       </c>
       <c r="B71" s="1" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>77.9 [71.5,86.4]</t>
+          <t>77.6 [71.3,86.0]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>75.1 [69.5,82.3]</t>
+          <t>75.1 [69.4,82.2]</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B72" s="1" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2045,16 +2045,16 @@
       </c>
       <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>97.9 [96.2,99.2]</t>
+          <t>97.8 [96.1,99.2]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>97.3 [95.7,98.6]</t>
+          <t>97.2 [95.7,98.6]</t>
         </is>
       </c>
     </row>
@@ -2066,16 +2066,16 @@
       </c>
       <c r="B74" s="1" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>88.4 [76.6,101.4]</t>
+          <t>88.5 [76.9,101.4]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>87.1 [76.1,99.3]</t>
+          <t>87.3 [76.2,99.6]</t>
         </is>
       </c>
     </row>
@@ -2087,11 +2087,11 @@
       </c>
       <c r="B75" s="1" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>1917</v>
+        <v>2018</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>84.5 [66.0,119.0]</t>
+          <t>84.0 [66.0,118.0]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2108,11 +2108,11 @@
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>1917</v>
+        <v>2018</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>44.0 [37.0,53.0]</t>
+          <t>44.0 [37.0,54.0]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>1083</v>
+        <v>1140</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2150,16 +2150,16 @@
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>160.0 [124.0,226.0]</t>
+          <t>160.0 [124.0,224.5]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>152.0 [122.0,200.0]</t>
+          <t>152.0 [123.0,201.0]</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2213,16 +2213,16 @@
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>7411</v>
+        <v>7958</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>17.8 [13.0,28.8]</t>
+          <t>18.1 [13.1,30.4]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>23.4 [13.5,36.8]</t>
+          <t>23.7 [13.6,37.7]</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="B82" s="1" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>1022</v>
+        <v>1089</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2255,16 +2255,16 @@
       </c>
       <c r="B83" s="1" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>4934</v>
+        <v>5303</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>228.0 [150.5,365.0]</t>
+          <t>231.0 [150.5,361.5]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>235.0 [160.0,359.5]</t>
+          <t>237.0 [160.5,363.5]</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B84" s="1" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>

--- a/results/table1/coh_3.xlsx
+++ b/results/table1/coh_3.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,10 +519,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1568</v>
+        <v>1354</v>
       </c>
       <c r="E4" t="n">
-        <v>6597</v>
+        <v>6169</v>
       </c>
     </row>
     <row r="5">
@@ -541,12 +541,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>659 (42.0)</t>
+          <t>534 (39.4)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2526 (38.3)</t>
+          <t>2332 (37.8)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>377 (24.0)</t>
+          <t>336 (24.8)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1509 (22.9)</t>
+          <t>1413 (22.9)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>318 (20.3)</t>
+          <t>285 (21.0)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1456 (22.1)</t>
+          <t>1374 (22.3)</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>214 (13.6)</t>
+          <t>199 (14.7)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1106 (16.8)</t>
+          <t>1050 (17.0)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>731 (46.6)</t>
+          <t>623 (46.0)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2786 (42.2)</t>
+          <t>2610 (42.3)</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>590 (37.6)</t>
+          <t>473 (34.9)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3258 (49.4)</t>
+          <t>2977 (48.3)</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>222 (14.2)</t>
+          <t>198 (14.6)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>376 (5.7)</t>
+          <t>364 (5.9)</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>756 (48.2)</t>
+          <t>683 (50.4)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2963 (44.9)</t>
+          <t>2828 (45.8)</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>495 (31.6)</t>
+          <t>450 (33.2)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>336 (5.1)</t>
+          <t>304 (4.9)</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>104 (6.6)</t>
+          <t>98 (7.2)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>753 (11.4)</t>
+          <t>709 (11.5)</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>539 (34.4)</t>
+          <t>476 (35.2)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2760 (41.8)</t>
+          <t>2610 (42.3)</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>365 (23.3)</t>
+          <t>300 (22.2)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1508 (22.9)</t>
+          <t>1368 (22.2)</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>505 (32.2)</t>
+          <t>412 (30.4)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2122 (32.2)</t>
+          <t>1928 (31.3)</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1041 (66.4)</t>
+          <t>911 (67.3)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4566 (69.2)</t>
+          <t>4306 (69.8)</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>245 (15.6)</t>
+          <t>87 (6.4)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>680 (10.3)</t>
+          <t>404 (6.5)</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>819 (52.2)</t>
+          <t>687 (50.7)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3823 (58.0)</t>
+          <t>3536 (57.3)</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1131 (72.1)</t>
+          <t>985 (72.7)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4913 (74.5)</t>
+          <t>4627 (75.0)</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>324 (20.7)</t>
+          <t>146 (10.8)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>976 (14.8)</t>
+          <t>653 (10.6)</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>922 (58.8)</t>
+          <t>777 (57.4)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4241 (64.3)</t>
+          <t>3930 (63.7)</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1074 (68.5)</t>
+          <t>919 (67.9)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4362 (66.1)</t>
+          <t>4062 (65.8)</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>199 (12.7)</t>
+          <t>168 (12.4)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>962 (14.6)</t>
+          <t>904 (14.7)</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1550 (98.9)</t>
+          <t>1341 (99.0)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6545 (99.2)</t>
+          <t>6122 (99.2)</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1119 (71.4)</t>
+          <t>920 (67.9)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4255 (64.5)</t>
+          <t>3882 (62.9)</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>623 (39.7)</t>
+          <t>495 (36.6)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2549 (38.6)</t>
+          <t>2287 (37.1)</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>382 (24.4)</t>
+          <t>337 (24.9)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1690 (25.6)</t>
+          <t>1576 (25.5)</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>21 (1.3)</t>
+          <t>16 (1.2)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>119 (1.8)</t>
+          <t>116 (1.9)</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>463 (29.5)</t>
+          <t>368 (27.2)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2432 (36.9)</t>
+          <t>2198 (35.6)</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10 (0.6)</t>
+          <t>10 (0.7)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1220,12 +1220,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>121 (7.7)</t>
+          <t>126 (9.3)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>312 (4.7)</t>
+          <t>318 (5.2)</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1233,43 @@
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>44 (2.8)</t>
+          <t>1217 (89.9)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>124 (1.9)</t>
+          <t>5808 (94.1)</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Diabetes Type, n (%)</t>
+        </is>
+      </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>185 (11.8)</t>
+          <t>28 (2.1)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>338 (5.1)</t>
+          <t>146 (2.4)</t>
         </is>
       </c>
     </row>
@@ -1271,88 +1277,94 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1207 (77.0)</t>
+          <t>518 (38.3)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5780 (87.6)</t>
+          <t>1623 (26.3)</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Diabetes Type, n (%)</t>
-        </is>
-      </c>
+      <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>808 (59.7)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4400 (71.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Connective Tissue Disease, n (%)</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>49 (3.1)</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>179 (2.7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>634 (40.4)</t>
+          <t>59 (4.4)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1828 (27.7)</t>
+          <t>280 (4.5)</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia, n (%)</t>
+        </is>
+      </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>885 (56.4)</t>
+          <t>84 (6.2)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4590 (69.6)</t>
+          <t>341 (5.5)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Connective Tissue Disease, n (%)</t>
+          <t>Urinary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -1365,19 +1377,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>73 (4.7)</t>
+          <t>11 (0.8)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>315 (4.8)</t>
+          <t>41 (0.7)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pneumonia, n (%)</t>
+          <t>Biliary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1388,21 +1400,17 @@
       <c r="C42" t="n">
         <v>0</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>90 (5.7)</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>358 (5.4)</t>
+          <t>12 (0.2)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Urinary Tract Infection, n (%)</t>
+          <t>Skin Infection, n (%)</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -1415,259 +1423,255 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11 (0.7)</t>
+          <t>1 (0.1)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>42 (0.6)</t>
+          <t>7 (0.1)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Biliary Tract Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>Age, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>64 [51,75]</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13 (0.2)</t>
+          <t>67 [57,78]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Skin Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>5855</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2 (0.1)</t>
+          <t>8.11 [5.57,12.67]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7 (0.1)</t>
+          <t>8.25 [5.71,13.00]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Age, median [Q1,Q3]</t>
+          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1668</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>64 [51,75]</t>
+          <t>7.58 [5.17,12.58]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>68 [57,78]</t>
+          <t>7.21 [5.13,11.88]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>Hospital LOS (days, if deceased), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>6292</v>
+        <v>5855</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8.00 [5.50,12.58]</t>
+          <t>13.00 [9.00,22.00]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>8.25 [5.70,13.00]</t>
+          <t>13.00 [8.00,21.00]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+          <t>Hospital LOS (days, if survived), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>1873</v>
+        <v>1668</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7.54 [5.13,12.58]</t>
+          <t>16.00 [11.00,26.00]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.17 [5.13,11.79]</t>
+          <t>15.00 [10.00,24.00]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Hospital LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>6292</v>
+        <v>0</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13.00 [8.00,22.00]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13.00 [8.00,21.00]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Hospital LOS (days, if survived), median [Q1,Q3]</t>
+          <t>SOFA Score (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>1873</v>
+        <v>0</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>17.00 [11.00,26.00]</t>
+          <t>6 [3,9]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15.00 [10.00,24.00]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+          <t>SOFA: Respiratory (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>2175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>2 [1,4]</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>2 [2,3]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>SOFA Score (admission), median [Q1,Q3]</t>
+          <t>SOFA: Coagulation (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6 [4,10]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Respiratory (admission), median [Q1,Q3]</t>
+          <t>SOFA: Liver (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>2409</v>
+        <v>2738</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2 [1,4]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2 [2,3]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Coagulation (admission), median [Q1,Q3]</t>
+          <t>SOFA: Cardiovascular (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>1 [1,4]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>1 [1,4]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Liver (admission), median [Q1,Q3]</t>
+          <t>SOFA: CNS (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>2934</v>
+        <v>25</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1683,607 +1687,565 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Cardiovascular (admission), median [Q1,Q3]</t>
+          <t>SOFA: Renal (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1 [1,4]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1 [1,4]</t>
+          <t>1 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>SOFA: CNS (admission), median [Q1,Q3]</t>
+          <t>Fluids Volume (first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>26</v>
+        <v>2766</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>997 [294,1688]</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>908 [300,1714]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Renal (admission), median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>4809 [2148,9544]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>4490 [1906,8772]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (first 24h), median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>3043</v>
+        <v>60</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>915 [289,1601]</t>
+          <t>560.4 [301.9,950.0]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>877 [285,1695]</t>
+          <t>523.0 [271.4,892.1]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
+          <t>FiO2 (mean %, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>70</v>
+        <v>3954</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4722 [2123,9457]</t>
+          <t>50 [40,61]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4403 [1879,8700]</t>
+          <t>50 [42,65]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
+          <t>MV_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>70</v>
+        <v>1911</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>553.1 [296.4,947.0]</t>
+          <t>65.0 [26.0,127.0]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>516.5 [265.4,884.1]</t>
+          <t>56.0 [23.0,115.0]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>FiO2 (mean %, first 24h), median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>4359</v>
+        <v>1911</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>50 [40,60]</t>
+          <t>0.31 [0.14,0.51]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>50 [42,65]</t>
+          <t>0.27 [0.13,0.47]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>MV_time_abs_hours, median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>2121</v>
+        <v>1911</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>66.0 [27.0,134.0]</t>
+          <t>2.0 [1.0,12.0]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>56.0 [23.0,116.0]</t>
+          <t>3.0 [1.0,14.0]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>2121</v>
+        <v>6724</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.32 [0.15,0.52]</t>
+          <t>54.5 [14.2,104.5]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.27 [0.13,0.47]</t>
+          <t>48.0 [15.0,112.0]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>2121</v>
+        <v>2771</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,13.0]</t>
+          <t>5.0 [1.0,24.0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,14.0]</t>
+          <t>4.0 [1.0,21.0]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>VP_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>6865</v>
+        <v>2771</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>24.0 [5.0,69.5]</t>
+          <t>45.0 [14.0,95.0]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>36.0 [8.0,88.0]</t>
+          <t>47.0 [17.0,98.0]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>2952</v>
+        <v>2771</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,22.2]</t>
+          <t>0.20 [0.06,0.44]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,20.0]</t>
+          <t>0.24 [0.08,0.46]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>VP_time_abs_hours, median [Q1,Q3]</t>
+          <t>Respiratory Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>2952</v>
+        <v>26</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>48.5 [15.0,104.0]</t>
+          <t>19.8 [17.2,23.2]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>49.0 [18.0,101.0]</t>
+          <t>19.6 [17.1,22.6]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>Mean Blood Pressure (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>2952</v>
+        <v>21</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.22 [0.07,0.49]</t>
+          <t>78.3 [71.9,86.4]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.24 [0.09,0.47]</t>
+          <t>75.4 [69.6,82.5]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Respiratory Rate (mean, first 24h), median [Q1,Q3]</t>
+          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>26</v>
+        <v>427</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>19.7 [17.1,23.0]</t>
+          <t>37.0 [36.6,37.4]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>19.5 [17.1,22.5]</t>
+          <t>36.9 [36.6,37.3]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Mean Blood Pressure (mean, first 24h), median [Q1,Q3]</t>
+          <t>SpO2 (%, mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>77.6 [71.3,86.0]</t>
+          <t>97.8 [96.1,99.2]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>75.1 [69.4,82.2]</t>
+          <t>97.2 [95.7,98.6]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
+          <t>Heart Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>460</v>
+        <v>21</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>36.9 [36.6,37.4]</t>
+          <t>88.9 [77.2,102.2]</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>36.9 [36.6,37.3]</t>
+          <t>87.4 [76.5,99.9]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>SpO2 (%, mean, first 24h), median [Q1,Q3]</t>
+          <t>PaO2 (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>24</v>
+        <v>1808</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>97.8 [96.1,99.2]</t>
+          <t>85.0 [67.0,118.0]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>97.2 [95.7,98.6]</t>
+          <t>85.0 [69.0,113.0]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Heart Rate (mean, first 24h), median [Q1,Q3]</t>
+          <t>PaCO2 (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>21</v>
+        <v>1808</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>88.5 [76.9,101.4]</t>
+          <t>44.0 [37.0,54.0]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>87.3 [76.2,99.6]</t>
+          <t>46.0 [39.0,54.0]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>PaO2 (min, first 24h), median [Q1,Q3]</t>
+          <t>pH (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>2018</v>
+        <v>1040</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>84.0 [66.0,118.0]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>85.0 [69.0,113.0]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>PaCO2 (max, first 24h), median [Q1,Q3]</t>
+          <t>Glucose (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>2018</v>
+        <v>29</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>44.0 [37.0,54.0]</t>
+          <t>161.0 [127.0,224.0]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>46.0 [39.0,54.0]</t>
+          <t>153.0 [123.0,201.0]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>pH (min, first 24h), median [Q1,Q3]</t>
+          <t>Sodium (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>1140</v>
+        <v>13</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Glucose (max, first 24h), median [Q1,Q3]</t>
+          <t>Potassium (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>160.0 [124.0,224.5]</t>
+          <t>4.5 [4.1,5.1]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>152.0 [123.0,201.0]</t>
+          <t>4.5 [4.1,5.0]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Sodium (min, first 24h), median [Q1,Q3]</t>
+          <t>Cortisol (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>13</v>
+        <v>7341</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>137.0 [134.0,140.0]</t>
+          <t>22.5 [13.3,31.4]</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>137.0 [134.0,140.0]</t>
+          <t>23.5 [13.1,37.7]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Potassium (max, first 24h), median [Q1,Q3]</t>
+          <t>Hemoglobin (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>17</v>
+        <v>1028</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4.5 [4.1,5.2]</t>
+          <t>10.1 [8.5,11.8]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4.5 [4.1,5.0]</t>
+          <t>10.1 [8.6,11.7]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Cortisol (min, first 24h), median [Q1,Q3]</t>
+          <t>Fibrinogen (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>7958</v>
+        <v>4873</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>18.1 [13.1,30.4]</t>
+          <t>225.0 [150.0,355.0]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>23.7 [13.6,37.7]</t>
+          <t>235.0 [160.0,362.0]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Hemoglobin (min, first 24h), median [Q1,Q3]</t>
+          <t>INR (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>1089</v>
+        <v>420</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>9.9 [8.3,11.6]</t>
+          <t>1.4 [1.2,1.8]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
-        <is>
-          <t>10.0 [8.5,11.6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>Fibrinogen (min, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="inlineStr"/>
-      <c r="C83" t="n">
-        <v>5303</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>231.0 [150.5,361.5]</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>237.0 [160.5,363.5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>INR (max, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="inlineStr"/>
-      <c r="C84" t="n">
-        <v>458</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>1.4 [1.2,1.8]</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
         <is>
           <t>1.4 [1.2,1.8]</t>
         </is>
@@ -2291,11 +2253,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A38:A40"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A36:A38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
